--- a/xls/guildUpgradeConfig.xlsx
+++ b/xls/guildUpgradeConfig.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>101</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>102</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>103</v>
+        <v>11520</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>104</v>
+        <v>22400</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>105</v>
+        <v>64000</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>106</v>
+        <v>144000</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
